--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H2">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.3312160282181</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N2">
-        <v>43.3312160282181</v>
+        <v>140.559366</v>
       </c>
       <c r="O2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q2">
-        <v>6561.311140395529</v>
+        <v>10695.96558065835</v>
       </c>
       <c r="R2">
-        <v>6561.311140395529</v>
+        <v>96263.69022592512</v>
       </c>
       <c r="S2">
-        <v>0.3476842467595999</v>
+        <v>0.3816500168436434</v>
       </c>
       <c r="T2">
-        <v>0.3476842467595999</v>
+        <v>0.3816500168436435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H3">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92098964314601</v>
+        <v>2.924192</v>
       </c>
       <c r="N3">
-        <v>2.92098964314601</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q3">
-        <v>442.3028856165247</v>
+        <v>667.5554509096853</v>
       </c>
       <c r="R3">
-        <v>442.3028856165247</v>
+        <v>6007.999058187167</v>
       </c>
       <c r="S3">
-        <v>0.02343765481237468</v>
+        <v>0.02381949971346727</v>
       </c>
       <c r="T3">
-        <v>0.02343765481237468</v>
+        <v>0.02381949971346728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H4">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.545116597798324</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N4">
-        <v>0.545116597798324</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q4">
-        <v>82.54279325139296</v>
+        <v>710.3899576706885</v>
       </c>
       <c r="R4">
-        <v>82.54279325139296</v>
+        <v>6393.509619036196</v>
       </c>
       <c r="S4">
-        <v>0.004373947261905634</v>
+        <v>0.0253479068594652</v>
       </c>
       <c r="T4">
-        <v>0.004373947261905634</v>
+        <v>0.0253479068594652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H5">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>19.6479198409109</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N5">
-        <v>19.6479198409109</v>
+        <v>0.861356</v>
       </c>
       <c r="O5">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P5">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q5">
-        <v>2975.13264464617</v>
+        <v>65.54550145518978</v>
       </c>
       <c r="R5">
-        <v>2975.13264464617</v>
+        <v>589.909513096708</v>
       </c>
       <c r="S5">
-        <v>0.1576524463525661</v>
+        <v>0.002338773582034892</v>
       </c>
       <c r="T5">
-        <v>0.1576524463525661</v>
+        <v>0.002338773582034892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.2876777858051</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H6">
-        <v>55.2876777858051</v>
+        <v>684.861443</v>
       </c>
       <c r="I6">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J6">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.3312160282181</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N6">
-        <v>43.3312160282181</v>
+        <v>1.783792</v>
       </c>
       <c r="O6">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P6">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q6">
-        <v>2395.682309835236</v>
+        <v>135.7389292368729</v>
       </c>
       <c r="R6">
-        <v>2395.682309835236</v>
+        <v>1221.650363131856</v>
       </c>
       <c r="S6">
-        <v>0.1269473404853883</v>
+        <v>0.004843392982048286</v>
       </c>
       <c r="T6">
-        <v>0.1269473404853883</v>
+        <v>0.004843392982048287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.2876777858051</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H7">
-        <v>55.2876777858051</v>
+        <v>684.861443</v>
       </c>
       <c r="I7">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J7">
-        <v>0.1946644370259187</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.92098964314601</v>
+        <v>21.18675466666667</v>
       </c>
       <c r="N7">
-        <v>2.92098964314601</v>
+        <v>63.560264</v>
       </c>
       <c r="O7">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273726</v>
       </c>
       <c r="P7">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273725</v>
       </c>
       <c r="Q7">
-        <v>161.4947342059304</v>
+        <v>4836.663791166773</v>
       </c>
       <c r="R7">
-        <v>161.4947342059304</v>
+        <v>43529.97412050096</v>
       </c>
       <c r="S7">
-        <v>0.008557615058420464</v>
+        <v>0.1725802877211784</v>
       </c>
       <c r="T7">
-        <v>0.008557615058420464</v>
+        <v>0.1725802877211784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545116597798324</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N8">
-        <v>0.545116597798324</v>
+        <v>140.559366</v>
       </c>
       <c r="O8">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P8">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q8">
-        <v>30.13823081476805</v>
+        <v>2654.70807526518</v>
       </c>
       <c r="R8">
-        <v>30.13823081476805</v>
+        <v>23892.37267738663</v>
       </c>
       <c r="S8">
-        <v>0.001597026547786595</v>
+        <v>0.09472444296866846</v>
       </c>
       <c r="T8">
-        <v>0.001597026547786595</v>
+        <v>0.09472444296866848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.6479198409109</v>
+        <v>2.924192</v>
       </c>
       <c r="N9">
-        <v>19.6479198409109</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P9">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q9">
-        <v>1086.287861325609</v>
+        <v>165.6853542443946</v>
       </c>
       <c r="R9">
-        <v>1086.287861325609</v>
+        <v>1491.168188199552</v>
       </c>
       <c r="S9">
-        <v>0.05756245493432331</v>
+        <v>0.005911931724281608</v>
       </c>
       <c r="T9">
-        <v>0.05756245493432331</v>
+        <v>0.005911931724281609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J10">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>43.3312160282181</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N10">
-        <v>43.3312160282181</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O10">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P10">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q10">
-        <v>23.901339176804</v>
+        <v>176.3167563502564</v>
       </c>
       <c r="R10">
-        <v>23.901339176804</v>
+        <v>1586.850807152308</v>
       </c>
       <c r="S10">
-        <v>0.001266533308727052</v>
+        <v>0.006291278007903807</v>
       </c>
       <c r="T10">
-        <v>0.001266533308727052</v>
+        <v>0.006291278007903808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J11">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.92098964314601</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N11">
-        <v>2.92098964314601</v>
+        <v>0.861356</v>
       </c>
       <c r="O11">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P11">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q11">
-        <v>1.611207129458339</v>
+        <v>16.26820605379022</v>
       </c>
       <c r="R11">
-        <v>1.611207129458339</v>
+        <v>146.413854484112</v>
       </c>
       <c r="S11">
-        <v>8.537795650788943E-05</v>
+        <v>0.0005804769160506914</v>
       </c>
       <c r="T11">
-        <v>8.537795650788943E-05</v>
+        <v>0.0005804769160506915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J12">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.545116597798324</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N12">
-        <v>0.545116597798324</v>
+        <v>1.783792</v>
       </c>
       <c r="O12">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P12">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q12">
-        <v>0.3006843077378316</v>
+        <v>33.69001413248711</v>
       </c>
       <c r="R12">
-        <v>0.3006843077378316</v>
+        <v>303.210127192384</v>
       </c>
       <c r="S12">
-        <v>1.593327839684763E-05</v>
+        <v>0.001202116289938068</v>
       </c>
       <c r="T12">
-        <v>1.593327839684763E-05</v>
+        <v>0.001202116289938069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.551596317104025</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
-        <v>0.551596317104025</v>
+        <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J13">
-        <v>0.001942135948458909</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6479198409109</v>
+        <v>21.18675466666667</v>
       </c>
       <c r="N13">
-        <v>19.6479198409109</v>
+        <v>63.560264</v>
       </c>
       <c r="O13">
-        <v>0.2957009293210507</v>
+        <v>0.2826498121273726</v>
       </c>
       <c r="P13">
-        <v>0.2957009293210507</v>
+        <v>0.2826498121273725</v>
       </c>
       <c r="Q13">
-        <v>10.83772022300155</v>
+        <v>1200.446124001348</v>
       </c>
       <c r="R13">
-        <v>10.83772022300155</v>
+        <v>10804.01511601213</v>
       </c>
       <c r="S13">
-        <v>0.0005742914048271196</v>
+        <v>0.04283393397165375</v>
       </c>
       <c r="T13">
-        <v>0.0005742914048271196</v>
+        <v>0.04283393397165375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H14">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I14">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J14">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.3312160282181</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N14">
-        <v>43.3312160282181</v>
+        <v>140.559366</v>
       </c>
       <c r="O14">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P14">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q14">
-        <v>26.84852339538444</v>
+        <v>30.30578625535733</v>
       </c>
       <c r="R14">
-        <v>26.84852339538444</v>
+        <v>272.752076298216</v>
       </c>
       <c r="S14">
-        <v>0.001422704766408778</v>
+        <v>0.001081361355138642</v>
       </c>
       <c r="T14">
-        <v>0.001422704766408778</v>
+        <v>0.001081361355138642</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H15">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I15">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J15">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.92098964314601</v>
+        <v>2.924192</v>
       </c>
       <c r="N15">
-        <v>2.92098964314601</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O15">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P15">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q15">
-        <v>1.809879019333543</v>
+        <v>1.891441465130666</v>
       </c>
       <c r="R15">
-        <v>1.809879019333543</v>
+        <v>17.022973186176</v>
       </c>
       <c r="S15">
-        <v>9.590559113845849E-05</v>
+        <v>6.748980833775763E-05</v>
       </c>
       <c r="T15">
-        <v>9.590559113845849E-05</v>
+        <v>6.748980833775764E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H16">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I16">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J16">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.545116597798324</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N16">
-        <v>0.545116597798324</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O16">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P16">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q16">
-        <v>0.3377605585698243</v>
+        <v>2.012808105333777</v>
       </c>
       <c r="R16">
-        <v>0.3377605585698243</v>
+        <v>18.115272948004</v>
       </c>
       <c r="S16">
-        <v>1.789795101598733E-05</v>
+        <v>7.182037390740886E-05</v>
       </c>
       <c r="T16">
-        <v>1.789795101598733E-05</v>
+        <v>7.182037390740889E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.619611583896011</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H17">
-        <v>0.619611583896011</v>
+        <v>1.940476</v>
       </c>
       <c r="I17">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J17">
-        <v>0.002181613426071994</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>19.6479198409109</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N17">
-        <v>19.6479198409109</v>
+        <v>0.861356</v>
       </c>
       <c r="O17">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P17">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q17">
-        <v>12.17407873288867</v>
+        <v>0.1857156272728889</v>
       </c>
       <c r="R17">
-        <v>12.17407873288867</v>
+        <v>1.671440645456</v>
       </c>
       <c r="S17">
-        <v>0.0006451051175087702</v>
+        <v>6.626645508751087E-06</v>
       </c>
       <c r="T17">
-        <v>0.0006451051175087702</v>
+        <v>6.626645508751088E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.742817901972584</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H18">
-        <v>0.742817901972584</v>
+        <v>1.940476</v>
       </c>
       <c r="I18">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J18">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>43.3312160282181</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N18">
-        <v>43.3312160282181</v>
+        <v>1.783792</v>
       </c>
       <c r="O18">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P18">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q18">
-        <v>32.18720298000177</v>
+        <v>0.3846006183324444</v>
       </c>
       <c r="R18">
-        <v>32.18720298000177</v>
+        <v>3.461405564992</v>
       </c>
       <c r="S18">
-        <v>0.001705601698188276</v>
+        <v>1.372319603665165E-05</v>
       </c>
       <c r="T18">
-        <v>0.001705601698188276</v>
+        <v>1.372319603665165E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.742817901972584</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H19">
-        <v>0.742817901972584</v>
+        <v>1.940476</v>
       </c>
       <c r="I19">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J19">
-        <v>0.002615415124876029</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.92098964314601</v>
+        <v>21.18675466666667</v>
       </c>
       <c r="N19">
-        <v>2.92098964314601</v>
+        <v>63.560264</v>
       </c>
       <c r="O19">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273726</v>
       </c>
       <c r="P19">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273725</v>
       </c>
       <c r="Q19">
-        <v>2.169763398405366</v>
+        <v>13.70412964951822</v>
       </c>
       <c r="R19">
-        <v>2.169763398405366</v>
+        <v>123.337166845664</v>
       </c>
       <c r="S19">
-        <v>0.000114975884648513</v>
+        <v>0.0004889863633278615</v>
       </c>
       <c r="T19">
-        <v>0.000114975884648513</v>
+        <v>0.0004889863633278615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.742817901972584</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H20">
-        <v>0.742817901972584</v>
+        <v>2.240248</v>
       </c>
       <c r="I20">
-        <v>0.002615415124876029</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J20">
-        <v>0.002615415124876029</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545116597798324</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N20">
-        <v>0.545116597798324</v>
+        <v>140.559366</v>
       </c>
       <c r="O20">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P20">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q20">
-        <v>0.404922367506984</v>
+        <v>34.98753761808533</v>
       </c>
       <c r="R20">
-        <v>0.404922367506984</v>
+        <v>314.887838562768</v>
       </c>
       <c r="S20">
-        <v>2.145685905306616E-05</v>
+        <v>0.001248414107222471</v>
       </c>
       <c r="T20">
-        <v>2.145685905306616E-05</v>
+        <v>0.001248414107222472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.742817901972584</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H21">
-        <v>0.742817901972584</v>
+        <v>2.240248</v>
       </c>
       <c r="I21">
-        <v>0.002615415124876029</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J21">
-        <v>0.002615415124876029</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.6479198409109</v>
+        <v>2.924192</v>
       </c>
       <c r="N21">
-        <v>19.6479198409109</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O21">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P21">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q21">
-        <v>14.59482659435094</v>
+        <v>2.183638426538666</v>
       </c>
       <c r="R21">
-        <v>14.59482659435094</v>
+        <v>19.652745838848</v>
       </c>
       <c r="S21">
-        <v>0.0007733806829861737</v>
+        <v>7.791588669431875E-05</v>
       </c>
       <c r="T21">
-        <v>0.0007733806829861737</v>
+        <v>7.791588669431877E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H22">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I22">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J22">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>43.3312160282181</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N22">
-        <v>43.3312160282181</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O22">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P22">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q22">
-        <v>3266.797649034647</v>
+        <v>2.323754239865778</v>
       </c>
       <c r="R22">
-        <v>3266.797649034647</v>
+        <v>20.913788158792</v>
       </c>
       <c r="S22">
-        <v>0.1731077913571058</v>
+        <v>8.291545425211387E-05</v>
       </c>
       <c r="T22">
-        <v>0.1731077913571058</v>
+        <v>8.29154542521139E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H23">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I23">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J23">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.92098964314601</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N23">
-        <v>2.92098964314601</v>
+        <v>0.861356</v>
       </c>
       <c r="O23">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P23">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q23">
-        <v>220.217269990065</v>
+        <v>0.2144056729208889</v>
       </c>
       <c r="R23">
-        <v>220.217269990065</v>
+        <v>1.929651056288</v>
       </c>
       <c r="S23">
-        <v>0.01166932553595311</v>
+        <v>7.65035452522402E-06</v>
       </c>
       <c r="T23">
-        <v>0.01166932553595311</v>
+        <v>7.650354525224022E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H24">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I24">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J24">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.545116597798324</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N24">
-        <v>0.545116597798324</v>
+        <v>1.783792</v>
       </c>
       <c r="O24">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P24">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q24">
-        <v>41.09706081125554</v>
+        <v>0.4440151622684445</v>
       </c>
       <c r="R24">
-        <v>41.09706081125554</v>
+        <v>3.996136460416</v>
       </c>
       <c r="S24">
-        <v>0.002177735566329735</v>
+        <v>1.584320675685594E-05</v>
       </c>
       <c r="T24">
-        <v>0.002177735566329735</v>
+        <v>1.584320675685594E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.39132174151879</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H25">
-        <v>75.39132174151879</v>
+        <v>2.240248</v>
       </c>
       <c r="I25">
-        <v>0.2654481032882279</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J25">
-        <v>0.2654481032882279</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.6479198409109</v>
+        <v>21.18675466666667</v>
       </c>
       <c r="N25">
-        <v>19.6479198409109</v>
+        <v>63.560264</v>
       </c>
       <c r="O25">
-        <v>0.2957009293210507</v>
+        <v>0.2826498121273726</v>
       </c>
       <c r="P25">
-        <v>0.2957009293210507</v>
+        <v>0.2826498121273725</v>
       </c>
       <c r="Q25">
-        <v>1481.282646277685</v>
+        <v>15.82119492283022</v>
       </c>
       <c r="R25">
-        <v>1481.282646277685</v>
+        <v>142.390754305472</v>
       </c>
       <c r="S25">
-        <v>0.07849325082883926</v>
+        <v>0.0005645268080988969</v>
       </c>
       <c r="T25">
-        <v>0.07849325082883926</v>
+        <v>0.000564526808098897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.406626</v>
+      </c>
+      <c r="I26">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J26">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N26">
+        <v>140.559366</v>
+      </c>
+      <c r="O26">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P26">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q26">
+        <v>37.58598052879066</v>
+      </c>
+      <c r="R26">
+        <v>338.273824759116</v>
+      </c>
+      <c r="S26">
+        <v>0.001341130914616769</v>
+      </c>
+      <c r="T26">
+        <v>0.001341130914616769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H27">
+        <v>2.406626</v>
+      </c>
+      <c r="I27">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J27">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.924192</v>
+      </c>
+      <c r="N27">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P27">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q27">
+        <v>2.345812165397333</v>
+      </c>
+      <c r="R27">
+        <v>21.112309488576</v>
+      </c>
+      <c r="S27">
+        <v>8.37025180835343E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.370251808353432E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H28">
+        <v>2.406626</v>
+      </c>
+      <c r="I28">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J28">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N28">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P28">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q28">
+        <v>2.496334053761555</v>
+      </c>
+      <c r="R28">
+        <v>22.467006483854</v>
+      </c>
+      <c r="S28">
+        <v>8.907339187667964E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.907339187667966E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H29">
+        <v>2.406626</v>
+      </c>
+      <c r="I29">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J29">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.861356</v>
+      </c>
+      <c r="O29">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P29">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q29">
+        <v>0.2303290827617778</v>
+      </c>
+      <c r="R29">
+        <v>2.072961744856</v>
+      </c>
+      <c r="S29">
+        <v>8.218528533279254E-06</v>
+      </c>
+      <c r="T29">
+        <v>8.218528533279256E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H30">
+        <v>2.406626</v>
+      </c>
+      <c r="I30">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J30">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.783792</v>
+      </c>
+      <c r="O30">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P30">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q30">
+        <v>0.4769911339768889</v>
+      </c>
+      <c r="R30">
+        <v>4.292920205792</v>
+      </c>
+      <c r="S30">
+        <v>1.701984481379971E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.701984481379972E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8022086666666667</v>
+      </c>
+      <c r="H31">
+        <v>2.406626</v>
+      </c>
+      <c r="I31">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="J31">
+        <v>0.002145598096919091</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N31">
+        <v>63.560264</v>
+      </c>
+      <c r="O31">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P31">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q31">
+        <v>16.99619821214045</v>
+      </c>
+      <c r="R31">
+        <v>152.965783909264</v>
+      </c>
+      <c r="S31">
+        <v>0.0006064528989950291</v>
+      </c>
+      <c r="T31">
+        <v>0.0006064528989950291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H32">
+        <v>260.227963</v>
+      </c>
+      <c r="I32">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J32">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N32">
+        <v>140.559366</v>
+      </c>
+      <c r="O32">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P32">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q32">
+        <v>4064.164166083495</v>
+      </c>
+      <c r="R32">
+        <v>36577.47749475145</v>
+      </c>
+      <c r="S32">
+        <v>0.1450162036091394</v>
+      </c>
+      <c r="T32">
+        <v>0.1450162036091394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H33">
+        <v>260.227963</v>
+      </c>
+      <c r="I33">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J33">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.924192</v>
+      </c>
+      <c r="N33">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P33">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q33">
+        <v>253.6521758602987</v>
+      </c>
+      <c r="R33">
+        <v>2282.869582742688</v>
+      </c>
+      <c r="S33">
+        <v>0.009050735668462317</v>
+      </c>
+      <c r="T33">
+        <v>0.009050735668462319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H34">
+        <v>260.227963</v>
+      </c>
+      <c r="I34">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J34">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P34">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q34">
+        <v>269.9280759776974</v>
+      </c>
+      <c r="R34">
+        <v>2429.352683799277</v>
+      </c>
+      <c r="S34">
+        <v>0.009631487121625499</v>
+      </c>
+      <c r="T34">
+        <v>0.009631487121625501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H35">
+        <v>260.227963</v>
+      </c>
+      <c r="I35">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J35">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.861356</v>
+      </c>
+      <c r="O35">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P35">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q35">
+        <v>24.90543525531422</v>
+      </c>
+      <c r="R35">
+        <v>224.148917297828</v>
+      </c>
+      <c r="S35">
+        <v>0.0008886677610366704</v>
+      </c>
+      <c r="T35">
+        <v>0.0008886677610366705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H36">
+        <v>260.227963</v>
+      </c>
+      <c r="I36">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J36">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.783792</v>
+      </c>
+      <c r="O36">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P36">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q36">
+        <v>51.57695095285511</v>
+      </c>
+      <c r="R36">
+        <v>464.192558575696</v>
+      </c>
+      <c r="S36">
+        <v>0.001840352238557721</v>
+      </c>
+      <c r="T36">
+        <v>0.001840352238557721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>86.74265433333333</v>
+      </c>
+      <c r="H37">
+        <v>260.227963</v>
+      </c>
+      <c r="I37">
+        <v>0.2320030707629401</v>
+      </c>
+      <c r="J37">
+        <v>0.2320030707629402</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N37">
+        <v>63.560264</v>
+      </c>
+      <c r="O37">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P37">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q37">
+        <v>1837.795336495804</v>
+      </c>
+      <c r="R37">
+        <v>16540.15802846223</v>
+      </c>
+      <c r="S37">
+        <v>0.06557562436411854</v>
+      </c>
+      <c r="T37">
+        <v>0.06557562436411854</v>
       </c>
     </row>
   </sheetData>
